--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-topk-masking-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,37 +58,37 @@
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>thought</t>
@@ -103,30 +103,27 @@
     <t>money</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -145,30 +142,33 @@
     <t>classic</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>easy</t>
@@ -548,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +614,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +632,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -688,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4">
         <v>0.8615384615384616</v>
@@ -717,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7746478873239436</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
-        <v>0.8602150537634409</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7204301075268817</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C6">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -785,19 +782,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6">
-        <v>0.703125</v>
+        <v>0.71875</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="C7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
         <v>0.6981132075471698</v>
@@ -867,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6621621621621622</v>
+        <v>0.6283783783783784</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -885,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>0.5652173913043478</v>
+        <v>0.5466284074605452</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>381</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>30</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6181818181818182</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5494978479196556</v>
+        <v>0.5362318840579711</v>
       </c>
       <c r="L9">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>383</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>314</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -988,16 +985,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10">
-        <v>0.491701244813278</v>
+        <v>0.5020746887966805</v>
       </c>
       <c r="L10">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M10">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6019417475728155</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>124</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
-        <v>0.460655737704918</v>
+        <v>0.4549180327868853</v>
       </c>
       <c r="L11">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="M11">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1059,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1067,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5798319327731093</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>0.3313253012048193</v>
+        <v>0.3547400611620795</v>
       </c>
       <c r="L12">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="M12">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>111</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4811594202898551</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C13">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="D13">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13">
-        <v>0.3211009174311927</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="M13">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>222</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.453125</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>0.3174603174603174</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L14">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>129</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4096385542168675</v>
+        <v>0.4028436018957346</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>126</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K15">
-        <v>0.3</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4028436018957346</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C16">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1285,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K16">
-        <v>0.1807228915662651</v>
+        <v>0.2097902097902098</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1309,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>204</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1317,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1335,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K17">
-        <v>0.1774193548387097</v>
+        <v>0.1847389558232932</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>153</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,13 +1364,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3622047244094488</v>
+        <v>0.3671875</v>
       </c>
       <c r="C18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,16 +1385,16 @@
         <v>81</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K18">
-        <v>0.1498685363716039</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L18">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="M18">
-        <v>171</v>
+        <v>33</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>970</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1417,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3473684210526316</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,31 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19">
-        <v>0.08356545961002786</v>
+        <v>0.1570175438596491</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>329</v>
+        <v>961</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1467,37 +1464,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2673267326732673</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>152</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D20">
-        <v>54</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>148</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="K20">
-        <v>0.08021390374331551</v>
+        <v>0.08288770053475936</v>
       </c>
       <c r="L20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1517,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2010309278350516</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1535,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.07272727272727272</v>
+        <v>0.07597402597402597</v>
       </c>
       <c r="L21">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="M21">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="N21">
         <v>0.99</v>
@@ -1559,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>1428</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1567,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1847826086956522</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1585,31 +1582,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K22">
-        <v>0.044</v>
+        <v>0.04394141145139813</v>
       </c>
       <c r="L22">
         <v>33</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N22">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O22">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P22" t="b">
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1617,13 +1614,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1708860759493671</v>
+        <v>0.1677215189873418</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1635,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1643,13 +1640,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1613924050632911</v>
+        <v>0.1617210682492582</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1661,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>265</v>
+        <v>565</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1669,13 +1666,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1572700296735905</v>
+        <v>0.1455696202531646</v>
       </c>
       <c r="C25">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="D25">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1687,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>568</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1695,25 +1692,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1542056074766355</v>
+        <v>0.1354466858789625</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>181</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1721,13 +1718,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.146551724137931</v>
+        <v>0.118942731277533</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1739,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>297</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1747,25 +1744,25 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.145</v>
+        <v>0.112781954887218</v>
       </c>
       <c r="C28">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1773,25 +1770,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1277533039647577</v>
+        <v>0.078125</v>
       </c>
       <c r="C29">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1799,51 +1796,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.06435643564356436</v>
+        <v>0.05921052631578947</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.05095541401273886</v>
-      </c>
-      <c r="C31">
-        <v>40</v>
-      </c>
-      <c r="D31">
-        <v>49</v>
-      </c>
-      <c r="E31">
-        <v>0.18</v>
-      </c>
-      <c r="F31">
-        <v>0.8200000000000001</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>745</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
